--- a/medicine/Handicap/Prestation_d'accompagnement_de_mise_en_situation_de_salariés_en_indemnités_journalières/Prestation_d'accompagnement_de_mise_en_situation_de_salariés_en_indemnités_journalières.xlsx
+++ b/medicine/Handicap/Prestation_d'accompagnement_de_mise_en_situation_de_salariés_en_indemnités_journalières/Prestation_d'accompagnement_de_mise_en_situation_de_salariés_en_indemnités_journalières.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prestation_d%27accompagnement_de_mise_en_situation_de_salari%C3%A9s_en_indemnit%C3%A9s_journali%C3%A8res</t>
+          <t>Prestation_d'accompagnement_de_mise_en_situation_de_salariés_en_indemnités_journalières</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La prestation d'accompagnement de mise en situation de salariés en indemnités journalières, ou presij, est un mécanisme destiné à aider un travailleur salarié en arrêt maladie ou de travail à retrouver un poste adapté dans son entreprise en France.
 Tout en continuant à toucher ses indemnités journalières (IJ), le salarié effectue des périodes dans l'entreprise afin de faciliter son retour à l'emploi. Cela peut s'accompagner d'une adaptation du poste ou d'un changement de poste. Ces périodes ont une durée cumulée de 160 h sur 4 mois.
